--- a/testMateriasPrimas.xlsx
+++ b/testMateriasPrimas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nombre</t>
   </si>
@@ -26,13 +26,7 @@
     <t>harina</t>
   </si>
   <si>
-    <t>kg</t>
-  </si>
-  <si>
     <t>manzana</t>
-  </si>
-  <si>
-    <t>unidades</t>
   </si>
   <si>
     <t>huevos</t>
@@ -110,53 +104,43 @@
       <c r="B2" t="n">
         <v>2.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>10.0</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
+      <c r="C3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>30.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
+      <c r="C5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
         <v>1.0</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
+      <c r="C6"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/testMateriasPrimas.xlsx
+++ b/testMateriasPrimas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nombre</t>
   </si>
@@ -20,19 +20,10 @@
     <t>Cantidad</t>
   </si>
   <si>
-    <t>Unidad de medida</t>
-  </si>
-  <si>
     <t>harina</t>
   </si>
   <si>
-    <t>kg</t>
-  </si>
-  <si>
     <t>manzana</t>
-  </si>
-  <si>
-    <t>unidades</t>
   </si>
   <si>
     <t>huevos</t>
@@ -99,63 +90,45 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>10.0</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>30.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>1.0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/testMateriasPrimas.xlsx
+++ b/testMateriasPrimas.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nombre</t>
   </si>
   <si>
     <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Unidad de medida</t>
   </si>
   <si>
     <t>harina</t>
@@ -93,54 +90,46 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
       </c>
-      <c r="C2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>10.0</v>
       </c>
-      <c r="C3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>30.0</v>
       </c>
-      <c r="C4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
       </c>
-      <c r="C5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>1.0</v>
       </c>
-      <c r="C6"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
